--- a/Data/pyautogy/Food Palace/uom/uom.xlsx
+++ b/Data/pyautogy/Food Palace/uom/uom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
   <si>
     <t>ITEM CODE</t>
   </si>
@@ -552,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,244 +576,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>273433</v>
+        <v>273501</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C2" s="3">
-        <v>1.2E-2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>273434</v>
+        <v>273502</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="3">
-        <v>2.1000000000000001E-2</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>273435</v>
+        <v>273503</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C4" s="3">
-        <v>4.8000000000000001E-2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>273436</v>
+      <c r="A5">
+        <v>273504</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C5" s="3">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>273437</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>273438</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>273439</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>273440</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>273441</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>273442</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.16500000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>273443</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.16500000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>273444</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>273445</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>273446</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="3">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>273447</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>273448</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="3">
-        <v>8.5000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>273449</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>273450</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>273451</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20">
-        <v>8.5000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>273452</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>273453</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22">
-        <v>8.5000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>273454</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23">
-        <v>4.4999999999999998E-2</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
